--- a/CountryIndexes/DB_SupplyChain_MA.xlsx
+++ b/CountryIndexes/DB_SupplyChain_MA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassinezahrouni/coding/test/CountryIndexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D50A30-5144-744B-9228-78089808BB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4C5D16-C9B5-5546-BB35-869B6E44F090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="5" xr2:uid="{63F6B712-49FA-2545-A479-242A3D2165A0}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="8" xr2:uid="{63F6B712-49FA-2545-A479-242A3D2165A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview Itinerary Part" sheetId="1" r:id="rId1"/>
@@ -43265,8 +43265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C96E0F-6F5A-E341-A6C7-770A83D51C58}">
   <dimension ref="A1:J954"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="C681" sqref="C681"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65394,8 +65394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3793894-AE5F-AA41-A6F7-73672CEC5B4D}">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CountryIndexes/DB_SupplyChain_MA.xlsx
+++ b/CountryIndexes/DB_SupplyChain_MA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yassinezahrouni/coding/test/CountryIndexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4C5D16-C9B5-5546-BB35-869B6E44F090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68019CEA-27DD-8347-948E-51134C608487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="8" xr2:uid="{63F6B712-49FA-2545-A479-242A3D2165A0}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="3" xr2:uid="{63F6B712-49FA-2545-A479-242A3D2165A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview Itinerary Part" sheetId="1" r:id="rId1"/>
@@ -9857,15 +9857,15 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{FBB7E62B-CE1B-2641-9A88-E0D06A0BF86A}" name="segments" displayName="segments" ref="A1:O74" tableType="queryTable" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:O74" xr:uid="{FBB7E62B-CE1B-2641-9A88-E0D06A0BF86A}">
-    <filterColumn colId="0">
+    <filterColumn colId="14">
       <filters>
-        <filter val="Post box No.981, Nandambakkam, Chennai, India"/>
+        <filter val="Route-A15"/>
+        <filter val="Route-A16"/>
+        <filter val="Route-A17"/>
+        <filter val="Route-A22"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O74">
-    <sortCondition ref="I1:I74"/>
-  </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{A21545CA-0B2F-494C-887C-462985A70DDC}" uniqueName="1" name="Segment_From" queryTableFieldId="1" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{BC9FCBAB-56EF-B24B-BABE-E72E1575D47A}" uniqueName="2" name="Segment_To" queryTableFieldId="2" dataDxfId="30"/>
@@ -23351,7 +23351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD322B0-A04E-1341-B086-8B37F9BDCBF5}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -65394,8 +65394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3793894-AE5F-AA41-A6F7-73672CEC5B4D}">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="H1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -66986,7 +66986,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>274</v>
       </c>
@@ -67033,7 +67033,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>317</v>
       </c>
@@ -67078,7 +67078,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>313</v>
       </c>
@@ -67495,7 +67495,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>304</v>
       </c>
@@ -67867,7 +67867,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>274</v>
       </c>
@@ -67914,7 +67914,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>350</v>
       </c>
@@ -67959,7 +67959,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>346</v>
       </c>
@@ -68419,7 +68419,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>274</v>
       </c>
@@ -68466,7 +68466,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>322</v>
       </c>
@@ -68511,7 +68511,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>318</v>
       </c>
@@ -68558,7 +68558,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>274</v>
       </c>
@@ -68605,7 +68605,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>322</v>
       </c>
@@ -68650,7 +68650,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>323</v>
       </c>
